--- a/xlsx/考底利耶_intext.xlsx
+++ b/xlsx/考底利耶_intext.xlsx
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>經濟學</t>
+    <t>经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%A6</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3%E6%94%BF%E7%AD%96</t>
   </si>
   <si>
-    <t>貨幣政策</t>
+    <t>货币政策</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%A2%E6%94%BF%E6%94%BF%E7%AD%96</t>
@@ -131,19 +131,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%A6%8F%E5%88%A9</t>
   </si>
   <si>
-    <t>社會福利</t>
+    <t>社会福利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%97%9C%E4%BF%82</t>
   </si>
   <si>
-    <t>國際關係</t>
+    <t>国际关系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E6%88%B0%E7%95%A5</t>
   </si>
   <si>
-    <t>軍事戰略</t>
+    <t>军事战略</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -173,7 +173,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -191,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -203,13 +203,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>澳洲國家圖書館</t>
+    <t>澳洲国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
